--- a/2018elections/20180114-mnpoll-trump/builds/development/data/maindata.xlsx
+++ b/2018elections/20180114-mnpoll-trump/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="17580" yWindow="5660" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -763,6 +763,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1267,9 +1270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4488,8 +4491,8 @@
       <c r="I38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
+      <c r="J38" s="25">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>29</v>
@@ -4574,8 +4577,8 @@
       <c r="I39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J39" s="3">
-        <v>0</v>
+      <c r="J39" s="25">
+        <v>0.05</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>29</v>
